--- a/va_facility_data_2025-02-20/Berea VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Berea%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Berea VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Berea%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R09b729d98f7e4d9aae528d4692af31bd"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7e799cb92a964ce0a08d452915163c67"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1f74d80846a84b1b9535e8ef292fe039"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R164eb3050d324538ad736dbcaf741161"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R95990440332d4034ad1f9e223bd958c2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3782e510c63d4780b4326daef917aa46"/>
   </x:sheets>
 </x:workbook>
 </file>
